--- a/UK_CoP_TitleLists/Karger_Hybrid&OA_scifreeimport.xlsx
+++ b/UK_CoP_TitleLists/Karger_Hybrid&OA_scifreeimport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmb17102\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leann\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C39E4B4-5377-4FA5-8641-951F981DD1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029F5A16-271B-43D9-8646-4B98F9B03C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal List" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1540,23 +1540,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1565,6 +1570,45 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2217,45 +2261,6 @@
           <color theme="9" tint="-0.499984740745262"/>
         </left>
         <right/>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
         <top style="thin">
           <color theme="9" tint="-0.499984740745262"/>
         </top>
@@ -2618,41 +2623,41 @@
     <tableColumn id="4" xr3:uid="{C1A14781-2EC2-4655-8B99-34C639B681F7}" name="Electronic ISSN" dataDxfId="26"/>
     <tableColumn id="5" xr3:uid="{6A1CDB50-05D6-4137-BED6-66AEA762C1D8}" name="Journal URL" dataDxfId="25"/>
     <tableColumn id="6" xr3:uid="{142F869A-41EF-4110-B212-DCDFE3A91B4D}" name="Publishing Model" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{883DC121-F62A-4717-ABC9-50C24089DAAE}" name="License Options" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{79ADE6AD-15D5-4E9E-ADB0-716C42F18B23}" name="Subject Areas" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{883DC121-F62A-4717-ABC9-50C24089DAAE}" name="License Options" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{79ADE6AD-15D5-4E9E-ADB0-716C42F18B23}" name="Subject Areas" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50DE42A8-741C-4C2A-82B7-4C9C79D7B512}" name="Table14" displayName="Table14" ref="A4:J23" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50DE42A8-741C-4C2A-82B7-4C9C79D7B512}" name="Table14" displayName="Table14" ref="A4:J23" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A4:J23" xr:uid="{50DE42A8-741C-4C2A-82B7-4C9C79D7B512}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1B9A1423-FE7E-41D7-B053-6BF091F459D2}" name="Journal Title" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B625EB42-AF86-4F71-BC2F-65D99997CD50}" name="Imprint" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{559DDF72-C949-47E4-8DA4-297063A6725C}" name="Print ISSN" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{2C5C0518-FAE9-4E34-9C5C-031EDE4262BA}" name="Electronic ISSN" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{D5474278-5905-4A79-9DFE-DE4AB9980E12}" name="Journal URL" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{3D861C40-F9D7-4168-ACD1-389CE9995730}" name="Publishing Model" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{156C7878-43A4-40BA-84D1-0BD24E590EEE}" name="License Options" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{4C684C0B-6FA6-4E1F-BC47-B228FA209770}" name="Subject Areas" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{96CDE76D-4B76-48A4-98FB-70E2CCC4CFC8}" name="Change Type (See Terms)" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{43B192BA-2299-4882-A245-9C663CF7CF9B}" name="Change Note" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{1B9A1423-FE7E-41D7-B053-6BF091F459D2}" name="Journal Title" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{B625EB42-AF86-4F71-BC2F-65D99997CD50}" name="Imprint" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{559DDF72-C949-47E4-8DA4-297063A6725C}" name="Print ISSN" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{2C5C0518-FAE9-4E34-9C5C-031EDE4262BA}" name="Electronic ISSN" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{D5474278-5905-4A79-9DFE-DE4AB9980E12}" name="Journal URL" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{3D861C40-F9D7-4168-ACD1-389CE9995730}" name="Publishing Model" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{156C7878-43A4-40BA-84D1-0BD24E590EEE}" name="License Options" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{4C684C0B-6FA6-4E1F-BC47-B228FA209770}" name="Subject Areas" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{96CDE76D-4B76-48A4-98FB-70E2CCC4CFC8}" name="Change Type (See Terms)" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{43B192BA-2299-4882-A245-9C663CF7CF9B}" name="Change Note" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{98A0D124-AED4-4DBE-8354-EE3315983F60}" name="Table25" displayName="Table25" ref="A1:B11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{98A0D124-AED4-4DBE-8354-EE3315983F60}" name="Table25" displayName="Table25" ref="A1:B11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:B11" xr:uid="{98A0D124-AED4-4DBE-8354-EE3315983F60}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E088FFDE-8F3A-4B84-9B24-F82FF70FAEA5}" name="Term" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{3BB7484B-180C-438A-8248-E8FEA43CCABB}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E088FFDE-8F3A-4B84-9B24-F82FF70FAEA5}" name="Term" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3BB7484B-180C-438A-8248-E8FEA43CCABB}" name="Description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2978,7 +2983,7 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3037,10 +3042,10 @@
         <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G2" t="s">
         <v>31</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>400</v>
       </c>
       <c r="H2" s="13"/>
     </row>
@@ -3061,10 +3066,10 @@
         <v>306</v>
       </c>
       <c r="F3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G3" t="s">
         <v>31</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H3" s="13"/>
     </row>
@@ -3085,10 +3090,10 @@
         <v>307</v>
       </c>
       <c r="F4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G4" t="s">
         <v>31</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H4" s="13"/>
     </row>
@@ -3109,10 +3114,10 @@
         <v>308</v>
       </c>
       <c r="F5" t="s">
-        <v>400</v>
-      </c>
-      <c r="G5" t="s">
         <v>31</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H5" s="13"/>
     </row>
@@ -3133,10 +3138,10 @@
         <v>309</v>
       </c>
       <c r="F6" t="s">
-        <v>400</v>
-      </c>
-      <c r="G6" t="s">
         <v>31</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H6" s="13"/>
     </row>
@@ -3157,10 +3162,10 @@
         <v>310</v>
       </c>
       <c r="F7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G7" t="s">
         <v>401</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H7" s="13"/>
       <c r="K7" s="14"/>
@@ -3182,10 +3187,10 @@
         <v>311</v>
       </c>
       <c r="F8" t="s">
-        <v>400</v>
-      </c>
-      <c r="G8" t="s">
         <v>31</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -3206,10 +3211,10 @@
         <v>312</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
-      </c>
-      <c r="G9" t="s">
         <v>31</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H9" s="13"/>
     </row>
@@ -3230,10 +3235,10 @@
         <v>313</v>
       </c>
       <c r="F10" t="s">
-        <v>400</v>
-      </c>
-      <c r="G10" t="s">
         <v>31</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H10" s="13"/>
     </row>
@@ -3254,10 +3259,10 @@
         <v>314</v>
       </c>
       <c r="F11" t="s">
-        <v>400</v>
-      </c>
-      <c r="G11" t="s">
         <v>31</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -3278,10 +3283,10 @@
         <v>315</v>
       </c>
       <c r="F12" t="s">
-        <v>400</v>
-      </c>
-      <c r="G12" t="s">
         <v>401</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -3302,10 +3307,10 @@
         <v>316</v>
       </c>
       <c r="F13" t="s">
-        <v>400</v>
-      </c>
-      <c r="G13" t="s">
         <v>31</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -3326,10 +3331,10 @@
         <v>317</v>
       </c>
       <c r="F14" t="s">
-        <v>400</v>
-      </c>
-      <c r="G14" t="s">
         <v>401</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H14" s="13"/>
     </row>
@@ -3350,10 +3355,10 @@
         <v>318</v>
       </c>
       <c r="F15" t="s">
-        <v>400</v>
-      </c>
-      <c r="G15" t="s">
         <v>401</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H15" s="13"/>
     </row>
@@ -3374,10 +3379,10 @@
         <v>319</v>
       </c>
       <c r="F16" t="s">
-        <v>400</v>
-      </c>
-      <c r="G16" t="s">
         <v>401</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H16" s="13"/>
     </row>
@@ -3398,10 +3403,10 @@
         <v>320</v>
       </c>
       <c r="F17" t="s">
-        <v>400</v>
-      </c>
-      <c r="G17" t="s">
         <v>401</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H17" s="13"/>
     </row>
@@ -3422,10 +3427,10 @@
         <v>321</v>
       </c>
       <c r="F18" t="s">
-        <v>400</v>
-      </c>
-      <c r="G18" t="s">
         <v>401</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H18" s="13"/>
     </row>
@@ -3446,10 +3451,10 @@
         <v>322</v>
       </c>
       <c r="F19" t="s">
-        <v>400</v>
-      </c>
-      <c r="G19" t="s">
         <v>401</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H19" s="13"/>
     </row>
@@ -3470,10 +3475,10 @@
         <v>323</v>
       </c>
       <c r="F20" t="s">
-        <v>400</v>
-      </c>
-      <c r="G20" t="s">
         <v>401</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="H20" s="15"/>
     </row>
@@ -3494,12 +3499,12 @@
         <v>324</v>
       </c>
       <c r="F21" t="s">
-        <v>400</v>
-      </c>
-      <c r="G21" t="s">
         <v>401</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="G21" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -3518,12 +3523,12 @@
         <v>325</v>
       </c>
       <c r="F22" t="s">
-        <v>400</v>
-      </c>
-      <c r="G22" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="27"/>
+      <c r="G22" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -3542,12 +3547,12 @@
         <v>326</v>
       </c>
       <c r="F23" t="s">
-        <v>400</v>
-      </c>
-      <c r="G23" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="27"/>
+      <c r="G23" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -3566,12 +3571,12 @@
         <v>327</v>
       </c>
       <c r="F24" t="s">
-        <v>400</v>
-      </c>
-      <c r="G24" t="s">
         <v>401</v>
       </c>
-      <c r="H24" s="27"/>
+      <c r="G24" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -3590,12 +3595,12 @@
         <v>328</v>
       </c>
       <c r="F25" t="s">
-        <v>400</v>
-      </c>
-      <c r="G25" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="27"/>
+      <c r="G25" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -3614,12 +3619,12 @@
         <v>329</v>
       </c>
       <c r="F26" t="s">
-        <v>400</v>
-      </c>
-      <c r="G26" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="27"/>
+      <c r="G26" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -3638,12 +3643,12 @@
         <v>330</v>
       </c>
       <c r="F27" t="s">
-        <v>400</v>
-      </c>
-      <c r="G27" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="27"/>
+      <c r="G27" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -3662,12 +3667,12 @@
         <v>331</v>
       </c>
       <c r="F28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="G28" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -3686,12 +3691,12 @@
         <v>332</v>
       </c>
       <c r="F29" t="s">
-        <v>400</v>
-      </c>
-      <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="G29" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -3710,12 +3715,12 @@
         <v>333</v>
       </c>
       <c r="F30" t="s">
-        <v>400</v>
-      </c>
-      <c r="G30" t="s">
         <v>401</v>
       </c>
-      <c r="H30" s="27"/>
+      <c r="G30" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -3734,12 +3739,12 @@
         <v>334</v>
       </c>
       <c r="F31" t="s">
-        <v>400</v>
-      </c>
-      <c r="G31" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="27"/>
+      <c r="G31" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
@@ -3758,12 +3763,12 @@
         <v>335</v>
       </c>
       <c r="F32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G32" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="27"/>
+      <c r="G32" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -3782,12 +3787,12 @@
         <v>336</v>
       </c>
       <c r="F33" t="s">
-        <v>400</v>
-      </c>
-      <c r="G33" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="27"/>
+      <c r="G33" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -3806,12 +3811,12 @@
         <v>337</v>
       </c>
       <c r="F34" t="s">
-        <v>400</v>
-      </c>
-      <c r="G34" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="27"/>
+      <c r="G34" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
@@ -3830,12 +3835,12 @@
         <v>338</v>
       </c>
       <c r="F35" t="s">
-        <v>400</v>
-      </c>
-      <c r="G35" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="27"/>
+      <c r="G35" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -3854,12 +3859,12 @@
         <v>339</v>
       </c>
       <c r="F36" t="s">
-        <v>400</v>
-      </c>
-      <c r="G36" t="s">
         <v>401</v>
       </c>
-      <c r="H36" s="27"/>
+      <c r="G36" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
@@ -3878,12 +3883,12 @@
         <v>340</v>
       </c>
       <c r="F37" t="s">
-        <v>400</v>
-      </c>
-      <c r="G37" t="s">
         <v>401</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="G37" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -3902,12 +3907,12 @@
         <v>341</v>
       </c>
       <c r="F38" t="s">
-        <v>400</v>
-      </c>
-      <c r="G38" t="s">
         <v>401</v>
       </c>
-      <c r="H38" s="27"/>
+      <c r="G38" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
@@ -3926,12 +3931,12 @@
         <v>342</v>
       </c>
       <c r="F39" t="s">
-        <v>400</v>
-      </c>
-      <c r="G39" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="27"/>
+      <c r="G39" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
@@ -3950,12 +3955,12 @@
         <v>343</v>
       </c>
       <c r="F40" t="s">
-        <v>400</v>
-      </c>
-      <c r="G40" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="27"/>
+      <c r="G40" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
@@ -3974,12 +3979,12 @@
         <v>344</v>
       </c>
       <c r="F41" t="s">
-        <v>400</v>
-      </c>
-      <c r="G41" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="27"/>
+      <c r="G41" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -3998,12 +4003,12 @@
         <v>345</v>
       </c>
       <c r="F42" t="s">
-        <v>400</v>
-      </c>
-      <c r="G42" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="27"/>
+      <c r="G42" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
@@ -4022,12 +4027,12 @@
         <v>346</v>
       </c>
       <c r="F43" t="s">
-        <v>400</v>
-      </c>
-      <c r="G43" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="27"/>
+      <c r="G43" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -4046,12 +4051,12 @@
         <v>347</v>
       </c>
       <c r="F44" t="s">
-        <v>400</v>
-      </c>
-      <c r="G44" t="s">
         <v>401</v>
       </c>
-      <c r="H44" s="27"/>
+      <c r="G44" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -4070,12 +4075,12 @@
         <v>348</v>
       </c>
       <c r="F45" t="s">
-        <v>400</v>
-      </c>
-      <c r="G45" t="s">
         <v>401</v>
       </c>
-      <c r="H45" s="27"/>
+      <c r="G45" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
@@ -4094,12 +4099,12 @@
         <v>349</v>
       </c>
       <c r="F46" t="s">
-        <v>400</v>
-      </c>
-      <c r="G46" t="s">
         <v>31</v>
       </c>
-      <c r="H46" s="27"/>
+      <c r="G46" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -4118,12 +4123,12 @@
         <v>350</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
-      </c>
-      <c r="G47" t="s">
         <v>401</v>
       </c>
-      <c r="H47" s="27"/>
+      <c r="G47" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
@@ -4142,12 +4147,12 @@
         <v>351</v>
       </c>
       <c r="F48" t="s">
-        <v>400</v>
-      </c>
-      <c r="G48" t="s">
         <v>401</v>
       </c>
-      <c r="H48" s="27"/>
+      <c r="G48" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
@@ -4166,12 +4171,12 @@
         <v>352</v>
       </c>
       <c r="F49" t="s">
-        <v>400</v>
-      </c>
-      <c r="G49" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="27"/>
+      <c r="G49" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
@@ -4190,12 +4195,12 @@
         <v>353</v>
       </c>
       <c r="F50" t="s">
-        <v>400</v>
-      </c>
-      <c r="G50" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="27"/>
+      <c r="G50" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
@@ -4214,34 +4219,34 @@
         <v>354</v>
       </c>
       <c r="F51" t="s">
-        <v>400</v>
-      </c>
-      <c r="G51" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="27"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="30" t="s">
+      <c r="G51" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B52" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31" t="s">
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="F52" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G52" s="28" t="s">
+      <c r="F52" t="s">
         <v>401</v>
       </c>
-      <c r="H52" s="32" t="s">
+      <c r="G52" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H52" s="29" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4262,12 +4267,12 @@
         <v>355</v>
       </c>
       <c r="F53" t="s">
-        <v>400</v>
-      </c>
-      <c r="G53" t="s">
         <v>401</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="G53" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -4286,12 +4291,12 @@
         <v>356</v>
       </c>
       <c r="F54" t="s">
-        <v>400</v>
-      </c>
-      <c r="G54" t="s">
         <v>31</v>
       </c>
-      <c r="H54" s="27"/>
+      <c r="G54" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
@@ -4310,12 +4315,12 @@
         <v>357</v>
       </c>
       <c r="F55" t="s">
-        <v>400</v>
-      </c>
-      <c r="G55" t="s">
         <v>401</v>
       </c>
-      <c r="H55" s="27"/>
+      <c r="G55" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -4334,12 +4339,12 @@
         <v>358</v>
       </c>
       <c r="F56" t="s">
-        <v>400</v>
-      </c>
-      <c r="G56" t="s">
         <v>401</v>
       </c>
-      <c r="H56" s="27"/>
+      <c r="G56" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -4358,12 +4363,12 @@
         <v>359</v>
       </c>
       <c r="F57" t="s">
-        <v>400</v>
-      </c>
-      <c r="G57" t="s">
         <v>31</v>
       </c>
-      <c r="H57" s="27"/>
+      <c r="G57" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -4382,12 +4387,12 @@
         <v>360</v>
       </c>
       <c r="F58" t="s">
-        <v>400</v>
-      </c>
-      <c r="G58" t="s">
         <v>401</v>
       </c>
-      <c r="H58" s="27"/>
+      <c r="G58" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
@@ -4406,12 +4411,12 @@
         <v>361</v>
       </c>
       <c r="F59" t="s">
-        <v>400</v>
-      </c>
-      <c r="G59" t="s">
         <v>401</v>
       </c>
-      <c r="H59" s="27"/>
+      <c r="G59" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -4430,12 +4435,12 @@
         <v>362</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
-      </c>
-      <c r="G60" t="s">
         <v>401</v>
       </c>
-      <c r="H60" s="27"/>
+      <c r="G60" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
@@ -4454,12 +4459,12 @@
         <v>363</v>
       </c>
       <c r="F61" t="s">
-        <v>400</v>
-      </c>
-      <c r="G61" t="s">
         <v>401</v>
       </c>
-      <c r="H61" s="27"/>
+      <c r="G61" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
@@ -4478,12 +4483,12 @@
         <v>364</v>
       </c>
       <c r="F62" t="s">
-        <v>400</v>
-      </c>
-      <c r="G62" t="s">
         <v>401</v>
       </c>
-      <c r="H62" s="27"/>
+      <c r="G62" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
@@ -4502,12 +4507,12 @@
         <v>365</v>
       </c>
       <c r="F63" t="s">
-        <v>400</v>
-      </c>
-      <c r="G63" t="s">
         <v>401</v>
       </c>
-      <c r="H63" s="27"/>
+      <c r="G63" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
@@ -4526,12 +4531,12 @@
         <v>367</v>
       </c>
       <c r="F64" t="s">
-        <v>400</v>
-      </c>
-      <c r="G64" t="s">
         <v>401</v>
       </c>
-      <c r="H64" s="27"/>
+      <c r="G64" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H64" s="13"/>
     </row>
     <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
@@ -4550,12 +4555,12 @@
         <v>366</v>
       </c>
       <c r="F65" t="s">
-        <v>400</v>
-      </c>
-      <c r="G65" t="s">
         <v>31</v>
       </c>
-      <c r="H65" s="27"/>
+      <c r="G65" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H65" s="13"/>
     </row>
     <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
@@ -4574,12 +4579,12 @@
         <v>368</v>
       </c>
       <c r="F66" t="s">
-        <v>400</v>
-      </c>
-      <c r="G66" t="s">
         <v>31</v>
       </c>
-      <c r="H66" s="27"/>
+      <c r="G66" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H66" s="13"/>
     </row>
     <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
@@ -4598,12 +4603,12 @@
         <v>369</v>
       </c>
       <c r="F67" t="s">
-        <v>400</v>
-      </c>
-      <c r="G67" t="s">
         <v>31</v>
       </c>
-      <c r="H67" s="27"/>
+      <c r="G67" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -4622,12 +4627,12 @@
         <v>370</v>
       </c>
       <c r="F68" t="s">
-        <v>400</v>
-      </c>
-      <c r="G68" t="s">
         <v>31</v>
       </c>
-      <c r="H68" s="27"/>
+      <c r="G68" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
@@ -4646,12 +4651,12 @@
         <v>371</v>
       </c>
       <c r="F69" t="s">
-        <v>400</v>
-      </c>
-      <c r="G69" t="s">
         <v>31</v>
       </c>
-      <c r="H69" s="27"/>
+      <c r="G69" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
@@ -4670,12 +4675,12 @@
         <v>372</v>
       </c>
       <c r="F70" t="s">
-        <v>400</v>
-      </c>
-      <c r="G70" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="27"/>
+      <c r="G70" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -4694,12 +4699,12 @@
         <v>373</v>
       </c>
       <c r="F71" t="s">
-        <v>400</v>
-      </c>
-      <c r="G71" t="s">
         <v>31</v>
       </c>
-      <c r="H71" s="27"/>
+      <c r="G71" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -4718,12 +4723,12 @@
         <v>374</v>
       </c>
       <c r="F72" t="s">
-        <v>400</v>
-      </c>
-      <c r="G72" t="s">
         <v>31</v>
       </c>
-      <c r="H72" s="27"/>
+      <c r="G72" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -4742,12 +4747,12 @@
         <v>375</v>
       </c>
       <c r="F73" t="s">
-        <v>400</v>
-      </c>
-      <c r="G73" t="s">
         <v>401</v>
       </c>
-      <c r="H73" s="27"/>
+      <c r="G73" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -4766,12 +4771,12 @@
         <v>376</v>
       </c>
       <c r="F74" t="s">
-        <v>400</v>
-      </c>
-      <c r="G74" t="s">
         <v>31</v>
       </c>
-      <c r="H74" s="27"/>
+      <c r="G74" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -4790,12 +4795,12 @@
         <v>377</v>
       </c>
       <c r="F75" t="s">
-        <v>400</v>
-      </c>
-      <c r="G75" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="27"/>
+      <c r="G75" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
@@ -4814,12 +4819,12 @@
         <v>378</v>
       </c>
       <c r="F76" t="s">
-        <v>400</v>
-      </c>
-      <c r="G76" t="s">
         <v>31</v>
       </c>
-      <c r="H76" s="27"/>
+      <c r="G76" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -4838,12 +4843,12 @@
         <v>379</v>
       </c>
       <c r="F77" t="s">
-        <v>400</v>
-      </c>
-      <c r="G77" t="s">
         <v>401</v>
       </c>
-      <c r="H77" s="27"/>
+      <c r="G77" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -4862,12 +4867,12 @@
         <v>380</v>
       </c>
       <c r="F78" t="s">
-        <v>400</v>
-      </c>
-      <c r="G78" t="s">
         <v>31</v>
       </c>
-      <c r="H78" s="27"/>
+      <c r="G78" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
@@ -4886,12 +4891,12 @@
         <v>381</v>
       </c>
       <c r="F79" t="s">
-        <v>400</v>
-      </c>
-      <c r="G79" t="s">
         <v>31</v>
       </c>
-      <c r="H79" s="27"/>
+      <c r="G79" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -4910,12 +4915,12 @@
         <v>382</v>
       </c>
       <c r="F80" t="s">
-        <v>400</v>
-      </c>
-      <c r="G80" t="s">
         <v>31</v>
       </c>
-      <c r="H80" s="27"/>
+      <c r="G80" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H80" s="13"/>
     </row>
     <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -4934,12 +4939,12 @@
         <v>383</v>
       </c>
       <c r="F81" t="s">
-        <v>400</v>
-      </c>
-      <c r="G81" t="s">
         <v>31</v>
       </c>
-      <c r="H81" s="27"/>
+      <c r="G81" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -4958,12 +4963,12 @@
         <v>384</v>
       </c>
       <c r="F82" t="s">
-        <v>400</v>
-      </c>
-      <c r="G82" t="s">
         <v>31</v>
       </c>
-      <c r="H82" s="27"/>
+      <c r="G82" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -4982,12 +4987,12 @@
         <v>385</v>
       </c>
       <c r="F83" t="s">
-        <v>400</v>
-      </c>
-      <c r="G83" t="s">
         <v>401</v>
       </c>
-      <c r="H83" s="27"/>
+      <c r="G83" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -5006,12 +5011,12 @@
         <v>386</v>
       </c>
       <c r="F84" t="s">
-        <v>400</v>
-      </c>
-      <c r="G84" t="s">
         <v>31</v>
       </c>
-      <c r="H84" s="27"/>
+      <c r="G84" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -5030,12 +5035,12 @@
         <v>387</v>
       </c>
       <c r="F85" t="s">
-        <v>400</v>
-      </c>
-      <c r="G85" t="s">
         <v>31</v>
       </c>
-      <c r="H85" s="27"/>
+      <c r="G85" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -5054,12 +5059,12 @@
         <v>388</v>
       </c>
       <c r="F86" t="s">
-        <v>400</v>
-      </c>
-      <c r="G86" t="s">
         <v>401</v>
       </c>
-      <c r="H86" s="27"/>
+      <c r="G86" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
@@ -5078,12 +5083,12 @@
         <v>389</v>
       </c>
       <c r="F87" t="s">
-        <v>400</v>
-      </c>
-      <c r="G87" t="s">
         <v>31</v>
       </c>
-      <c r="H87" s="27"/>
+      <c r="G87" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H87" s="13"/>
     </row>
     <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -5102,34 +5107,34 @@
         <v>390</v>
       </c>
       <c r="F88" t="s">
-        <v>400</v>
-      </c>
-      <c r="G88" t="s">
         <v>31</v>
       </c>
-      <c r="H88" s="27"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="30" t="s">
+      <c r="G88" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H88" s="13"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="B89" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31" t="s">
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="E89" s="29" t="s">
+      <c r="E89" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="F89" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G89" s="28" t="s">
+      <c r="F89" t="s">
         <v>401</v>
       </c>
-      <c r="H89" s="32" t="s">
+      <c r="G89" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H89" s="29" t="s">
         <v>411</v>
       </c>
     </row>
@@ -5150,12 +5155,12 @@
         <v>391</v>
       </c>
       <c r="F90" t="s">
-        <v>400</v>
-      </c>
-      <c r="G90" t="s">
         <v>31</v>
       </c>
-      <c r="H90" s="27"/>
+      <c r="G90" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
@@ -5174,12 +5179,12 @@
         <v>392</v>
       </c>
       <c r="F91" t="s">
-        <v>400</v>
-      </c>
-      <c r="G91" t="s">
         <v>31</v>
       </c>
-      <c r="H91" s="27"/>
+      <c r="G91" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
@@ -5198,12 +5203,12 @@
         <v>393</v>
       </c>
       <c r="F92" t="s">
-        <v>400</v>
-      </c>
-      <c r="G92" t="s">
         <v>31</v>
       </c>
-      <c r="H92" s="27"/>
+      <c r="G92" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
@@ -5222,12 +5227,12 @@
         <v>394</v>
       </c>
       <c r="F93" t="s">
-        <v>400</v>
-      </c>
-      <c r="G93" t="s">
         <v>31</v>
       </c>
-      <c r="H93" s="27"/>
+      <c r="G93" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
@@ -5246,12 +5251,12 @@
         <v>395</v>
       </c>
       <c r="F94" t="s">
-        <v>400</v>
-      </c>
-      <c r="G94" t="s">
         <v>401</v>
       </c>
-      <c r="H94" s="27"/>
+      <c r="G94" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
@@ -5270,12 +5275,12 @@
         <v>396</v>
       </c>
       <c r="F95" t="s">
-        <v>400</v>
-      </c>
-      <c r="G95" t="s">
         <v>31</v>
       </c>
-      <c r="H95" s="27"/>
+      <c r="G95" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
@@ -5294,12 +5299,12 @@
         <v>397</v>
       </c>
       <c r="F96" t="s">
-        <v>400</v>
-      </c>
-      <c r="G96" t="s">
         <v>31</v>
       </c>
-      <c r="H96" s="27"/>
+      <c r="G96" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
@@ -5318,12 +5323,12 @@
         <v>398</v>
       </c>
       <c r="F97" t="s">
-        <v>400</v>
-      </c>
-      <c r="G97" t="s">
         <v>31</v>
       </c>
-      <c r="H97" s="27"/>
+      <c r="G97" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="H97" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5362,30 +5367,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
@@ -5420,26 +5425,26 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G5" s="28" t="s">
+      <c r="F5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" t="s">
         <v>401</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="29" t="s">
         <v>404</v>
       </c>
       <c r="I5" s="16" t="s">
@@ -5471,32 +5476,32 @@
       <c r="G6" t="s">
         <v>401</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="13"/>
       <c r="J6" s="17" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G7" s="28" t="s">
+      <c r="F7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G7" t="s">
         <v>401</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="29" t="s">
         <v>411</v>
       </c>
       <c r="I7" s="16" t="s">
